--- a/会员体系/会员分析/会员分析报告/会员分析报告201907/分析报告/会员分析v1.14/会员分析笔记.xlsx
+++ b/会员体系/会员分析/会员分析报告/会员分析报告201907/分析报告/会员分析v1.14/会员分析笔记.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D138BD91-1E53-4697-AC57-F1CB76BA34B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1636179-8C88-4203-847F-48646FAE6AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4970" yWindow="190" windowWidth="13650" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>会员分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,11 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、看中药涨价SKU数及下跌SKU数
-2、看涨价SKU四个指标和下跌SKU四个指标趋势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直接把SKU拆成散装和包装两个分类看四个指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均每单每个SKU盒数指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +173,64 @@
   </si>
   <si>
     <t>按分布查看，下同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原分析数据增加维度字段，下钻聚合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、看涨价SKU四个指标和下跌SKU四个指标趋势
+2、看涨价SKU销售占比和下跌SKU销售占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、得到每个中药SKU在2019和2018的平均售卖价格
+2、得到每个中药SKU在2019是上涨还是下跌
+3、原数据关联该SKU标签，按照上涨还是下跌分别得出四个指标数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中药品类销售增加分公司维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中药商品中增加散装和包装的维度，在四级品类上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每人每个SKU盒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、得到平均每人盒数，一个值
+2、再看平均每单盒数
+3、每年器械购买SKU会员数前20明细，指标带出平均每个会员购买数量（四年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到抗菌消炎品类每年折扣率，记账价/零售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出门店的开业时间，会员销售占比，名称（需要业务方自己百度查下位置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：可以给出门店编码、开业时间、会员销售占比，画出开业时间和会员销售占比关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,13 +297,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -296,7 +355,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$26" spid="_x0000_s1027"/>
+                  <a14:cameraTool cellRange="$C$26" spid="_x0000_s1033"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -657,19 +716,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.08984375" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="53.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,12 +737,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -693,10 +756,13 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -706,8 +772,11 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -717,8 +786,11 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -728,13 +800,16 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -742,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -750,10 +825,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -761,10 +839,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -772,10 +853,13 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -783,18 +867,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -802,26 +889,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -829,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -837,15 +927,18 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -853,48 +946,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -902,10 +1004,13 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
